--- a/OceanSubsidy/wwwroot/OSI/活動批次匯入範本.xlsx
+++ b/OceanSubsidy/wwwroot/OSI/活動批次匯入範本.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\_文件\海委會補助\Excel匯入匯出\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\OceanSubsidy\OceanSubsidy\wwwroot\OSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C22D164-A325-470D-ADCC-5370D23E794B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E388BA-EF92-47EE-853A-38A254BC3475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,24 +408,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
+    <t>研究調查活動內容概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究調查範圍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">活動執行者(描述)
 </t>
     </r>
@@ -440,14 +431,6 @@
       </rPr>
       <t>若需多筆請至系統填報</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究調查活動內容概述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究調查範圍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -886,7 +869,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -924,7 +907,7 @@
         <v>51</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>47</v>
@@ -954,10 +937,10 @@
         <v>1</v>
       </c>
       <c r="Q1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">

--- a/OceanSubsidy/wwwroot/OSI/活動批次匯入範本.xlsx
+++ b/OceanSubsidy/wwwroot/OSI/活動批次匯入範本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\OceanSubsidy\OceanSubsidy\wwwroot\OSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E388BA-EF92-47EE-853A-38A254BC3475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2B02D1-7BB4-491B-BC99-DB0C84325C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="匯入範本" sheetId="17" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
   <si>
     <t>2.許可</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,10 +412,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>研究調查範圍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">活動執行者(描述)
 </t>
@@ -431,6 +427,121 @@
       </rPr>
       <t>若需多筆請至系統填報</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究調查範圍(縣市)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市</t>
+  </si>
+  <si>
+    <t>桃園市</t>
+  </si>
+  <si>
+    <t>新竹市</t>
+  </si>
+  <si>
+    <t>新竹縣</t>
+  </si>
+  <si>
+    <t>苗栗縣</t>
+  </si>
+  <si>
+    <t>台中市</t>
+  </si>
+  <si>
+    <t>彰化縣</t>
+  </si>
+  <si>
+    <t>南投縣</t>
+  </si>
+  <si>
+    <t>雲林縣</t>
+  </si>
+  <si>
+    <t>嘉義市</t>
+  </si>
+  <si>
+    <t>嘉義縣</t>
+  </si>
+  <si>
+    <t>台南市</t>
+  </si>
+  <si>
+    <t>高雄市</t>
+  </si>
+  <si>
+    <t>屏東縣</t>
+  </si>
+  <si>
+    <t>宜蘭縣</t>
+  </si>
+  <si>
+    <t>花蓮縣</t>
+  </si>
+  <si>
+    <t>台東縣</t>
+  </si>
+  <si>
+    <t>澎湖縣</t>
+  </si>
+  <si>
+    <t>金門縣</t>
+  </si>
+  <si>
+    <t>連江縣</t>
+  </si>
+  <si>
+    <t>基隆市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">研究調查範圍(描述)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>若需多筆請至系統填報</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">研究調查範圍(縣市)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>若需多筆請至系統填報</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請選擇</t>
+  </si>
+  <si>
+    <t>請選擇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -865,11 +976,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -886,11 +997,11 @@
     <col min="14" max="14" width="23.875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23.875" style="1" customWidth="1"/>
     <col min="16" max="16" width="19.375" style="1" customWidth="1"/>
-    <col min="17" max="18" width="25.625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="17" max="19" width="25.625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>48</v>
       </c>
@@ -907,7 +1018,7 @@
         <v>51</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>47</v>
@@ -940,10 +1051,13 @@
         <v>54</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>43</v>
       </c>
@@ -996,10 +1110,14 @@
         <v>6</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="34" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1009,7 +1127,7 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CDA9CB37-5F72-4FA1-8A0C-0CDCE856D3B3}">
           <x14:formula1>
             <xm:f>'清單(此頁籤需隱藏)'!$A$2:$A$5</xm:f>
@@ -1034,6 +1152,12 @@
           </x14:formula1>
           <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{310D0D13-A362-400C-BD99-8FC254177FC9}">
+          <x14:formula1>
+            <xm:f>'清單(此頁籤需隱藏)'!$I$2:$I$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>R2</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1042,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E2E21B-D0A5-494A-B3F7-C368632E2761}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1057,10 +1181,12 @@
     <col min="5" max="5" width="18.75" style="6" customWidth="1"/>
     <col min="6" max="6" width="5.625" style="6" customWidth="1"/>
     <col min="7" max="7" width="48.25" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="6"/>
+    <col min="8" max="8" width="9" style="6"/>
+    <col min="9" max="9" width="20" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -1073,8 +1199,11 @@
       <c r="G1" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -1087,8 +1216,11 @@
       <c r="G2" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1101,8 +1233,11 @@
       <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -1115,8 +1250,11 @@
       <c r="G4" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1129,41 +1267,127 @@
       <c r="G5" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G8" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G9" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G10" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G11" s="7" t="s">
         <v>35</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
